--- a/biology/Médecine/Infection_communautaire/Infection_communautaire.xlsx
+++ b/biology/Médecine/Infection_communautaire/Infection_communautaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une infection communautaire est une infection survenant en dehors d'un établissement de santé, par opposition à une infection nosocomiale. Ce type d'infection est le plus fréquent. Les germes en cause peuvent être des virus, des bactéries, des champignons ou des parasites. Ces germes sont caractérisés par une probabilité de résistance relativement faible, en comparaison avec ceux des infections nosocomiales. C'est notamment le cas pour ce qui concerne la résistance bactérienne.
  Portail de la médecine                     </t>
